--- a/input/je-d-03.04.01.02.47.xlsx
+++ b/input/je-d-03.04.01.02.47.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\WI\LOHN\1a_LSE_all\LSE\2016\TABELLENOUTPUT_EMBARGO\1_Deutsch\1_CH\Tableaux_E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sco/Desktop/GitHub/202003_corona_berufe/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8521EE32-15A0-FD4F-8FFD-0518E490E95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-15" windowWidth="12645" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="13" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="179">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -501,12 +502,69 @@
   </si>
   <si>
     <t xml:space="preserve"> *Ergebnisse basierend auf durchschnittlich 78% der Daten. Der Anteil kann je nach Wirtschaftszweig variieren.</t>
+  </si>
+  <si>
+    <t>Betriebswirtschafter/innen akademische Berufe</t>
+  </si>
+  <si>
+    <t>Ingenieurtechnische Fachkräfte</t>
+  </si>
+  <si>
+    <t>Büro- und Sekretariatskräfte</t>
+  </si>
+  <si>
+    <t>Bau- u. Ausbaufachkräfte</t>
+  </si>
+  <si>
+    <t>Metallarbeiter/innen, Mechaniker/innen</t>
+  </si>
+  <si>
+    <t>Abfallentsorgungspersonal</t>
+  </si>
+  <si>
+    <t>Reinigungspersonal</t>
+  </si>
+  <si>
+    <t>Hilfskräfte im Bergbau, Bau, Warenherstellung u. Transportwesen</t>
+  </si>
+  <si>
+    <t>Nahrungsmittelverarbeitung, Bekleidungsherstellung</t>
+  </si>
+  <si>
+    <t>Führungskräfte in Hotels, Restaurants, Handel</t>
+  </si>
+  <si>
+    <t>Naturwissenschaft, Mathematik und Ingenieurswesen</t>
+  </si>
+  <si>
+    <t>Akademische Fachkräfte in der Informatik</t>
+  </si>
+  <si>
+    <t>Rechtswissenschaft, Sozialwissenschaft und Kultur</t>
+  </si>
+  <si>
+    <t>Betriebswirtschaftliche u. kaufmännische Fachkräfte</t>
+  </si>
+  <si>
+    <t>Juristische, sozialpflegerische u. kulturellee Fachkräfte</t>
+  </si>
+  <si>
+    <t>Informatik</t>
+  </si>
+  <si>
+    <t>Fachkräfte in Forstwirtschaft, Fischerei und Jagd</t>
+  </si>
+  <si>
+    <t>Präzisionshandwerk, Druck und kunsthandwerkliche Berufe</t>
+  </si>
+  <si>
+    <t>Geschäftsführung, leitende Funktionen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0\ \ "/>
@@ -776,12 +834,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_cc-d-03.4.1-A01" xfId="1"/>
-    <cellStyle name="Normal_cc-f-03.4.1-A01" xfId="2"/>
-    <cellStyle name="Normal_cc-f-03.4.1-A03" xfId="3"/>
-    <cellStyle name="Normal_cc-f-03.4.1-A09" xfId="4"/>
-    <cellStyle name="Standard_Arbeitsdok. jpw - Vorabdruck98" xfId="5"/>
+    <cellStyle name="Normal_cc-d-03.4.1-A01" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_cc-f-03.4.1-A01" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_cc-f-03.4.1-A03" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_cc-f-03.4.1-A09" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard_Arbeitsdok. jpw - Vorabdruck98" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -872,6 +930,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -907,6 +982,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1082,25 +1174,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="15" customWidth="1"/>
-    <col min="4" max="15" width="6.140625" style="17" customWidth="1"/>
-    <col min="16" max="27" width="12.5703125" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="15"/>
+    <col min="1" max="1" width="3.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="15" customWidth="1"/>
+    <col min="4" max="15" width="6.1640625" style="17" customWidth="1"/>
+    <col min="16" max="27" width="12.5" customWidth="1"/>
+    <col min="28" max="16384" width="12.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>141</v>
       </c>
@@ -1119,7 +1213,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>153</v>
       </c>
@@ -1138,7 +1232,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1157,7 +1251,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>35</v>
       </c>
@@ -1184,7 +1278,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
@@ -1211,7 +1305,7 @@
       <c r="N5" s="33"/>
       <c r="O5" s="37"/>
     </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="3" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1379,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1426,7 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -1383,12 +1477,12 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="23">
@@ -1440,7 +1534,7 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1591,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
@@ -1554,12 +1648,12 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="23">
@@ -1611,7 +1705,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1668,12 +1762,12 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="23">
@@ -1725,7 +1819,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1876,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -1839,12 +1933,12 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="23">
@@ -1896,12 +1990,12 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="23">
@@ -1953,12 +2047,12 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="23">
@@ -2010,13 +2104,11 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="24">
         <v>6920</v>
@@ -2067,12 +2159,12 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="23">
@@ -2124,7 +2216,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
@@ -2181,12 +2273,12 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="23">
@@ -2238,12 +2330,12 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="23">
@@ -2295,12 +2387,12 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="23">
@@ -2352,7 +2444,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>44</v>
       </c>
@@ -2409,12 +2501,12 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="23">
@@ -2466,7 +2558,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>16</v>
       </c>
@@ -2523,7 +2615,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -2580,7 +2672,7 @@
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>38</v>
       </c>
@@ -2637,7 +2729,7 @@
       <c r="Z31"/>
       <c r="AA31"/>
     </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -2694,7 +2786,7 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>18</v>
       </c>
@@ -2751,7 +2843,7 @@
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>19</v>
       </c>
@@ -2808,7 +2900,7 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>20</v>
       </c>
@@ -2865,7 +2957,7 @@
       <c r="Z35"/>
       <c r="AA35"/>
     </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -2922,7 +3014,7 @@
       <c r="Z36"/>
       <c r="AA36"/>
     </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
@@ -2979,7 +3071,7 @@
       <c r="Z37"/>
       <c r="AA37"/>
     </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>21</v>
       </c>
@@ -3036,12 +3128,12 @@
       <c r="Z38"/>
       <c r="AA38"/>
     </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="23">
@@ -3093,7 +3185,7 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -3150,12 +3242,12 @@
       <c r="Z40"/>
       <c r="AA40"/>
     </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="23">
@@ -3207,12 +3299,12 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="23">
@@ -3264,12 +3356,12 @@
       <c r="Z42"/>
       <c r="AA42"/>
     </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="23">
@@ -3321,7 +3413,7 @@
       <c r="Z43"/>
       <c r="AA43"/>
     </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>26</v>
       </c>
@@ -3378,12 +3470,12 @@
       <c r="Z44"/>
       <c r="AA44"/>
     </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="23">
@@ -3435,7 +3527,7 @@
       <c r="Z45"/>
       <c r="AA45"/>
     </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
         <v>48</v>
       </c>
@@ -3492,7 +3584,7 @@
       <c r="Z46"/>
       <c r="AA46"/>
     </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>28</v>
       </c>
@@ -3549,7 +3641,7 @@
       <c r="Z47"/>
       <c r="AA47"/>
     </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>29</v>
       </c>
@@ -3606,7 +3698,7 @@
       <c r="Z48"/>
       <c r="AA48"/>
     </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>40</v>
       </c>
@@ -3663,7 +3755,7 @@
       <c r="Z49"/>
       <c r="AA49"/>
     </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -3720,12 +3812,12 @@
       <c r="Z50"/>
       <c r="AA50"/>
     </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="23">
@@ -3777,7 +3869,7 @@
       <c r="Z51"/>
       <c r="AA51"/>
     </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>31</v>
       </c>
@@ -3834,12 +3926,12 @@
       <c r="Z52"/>
       <c r="AA52"/>
     </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="23">
@@ -3891,7 +3983,7 @@
       <c r="Z53"/>
       <c r="AA53"/>
     </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
         <v>33</v>
       </c>
@@ -3948,12 +4040,12 @@
       <c r="Z54"/>
       <c r="AA54"/>
     </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="23">
@@ -4005,7 +4097,7 @@
       <c r="Z55"/>
       <c r="AA55"/>
     </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -4022,7 +4114,7 @@
       <c r="Z56"/>
       <c r="AA56"/>
     </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="3" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4039,7 +4131,7 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
     </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -4060,7 +4152,7 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="1:27" s="13" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="13" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
@@ -4077,7 +4169,7 @@
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>125</v>
       </c>
@@ -4098,7 +4190,7 @@
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:27" s="13" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="13" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
@@ -4115,7 +4207,7 @@
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A62" s="44" t="s">
         <v>126</v>
       </c>
@@ -4136,7 +4228,7 @@
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:27" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
@@ -4153,7 +4245,7 @@
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="48" t="s">
@@ -4174,7 +4266,7 @@
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="49" t="s">
@@ -4195,7 +4287,7 @@
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="49" t="s">
@@ -4216,7 +4308,7 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="49" t="s">
@@ -4237,7 +4329,7 @@
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="42"/>
@@ -4254,7 +4346,7 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="48" t="s">
@@ -4275,7 +4367,7 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="49" t="s">
@@ -4296,7 +4388,7 @@
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="49" t="s">
@@ -4315,7 +4407,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -4332,7 +4424,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="44" t="s">
         <v>61</v>
       </c>
@@ -4365,7 +4457,7 @@
       <c r="Z73" s="15"/>
       <c r="AA73" s="15"/>
     </row>
-    <row r="74" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="46"/>
@@ -4394,7 +4486,7 @@
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
     </row>
-    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
         <v>63</v>
       </c>
@@ -4427,7 +4519,7 @@
       <c r="Z75" s="15"/>
       <c r="AA75" s="15"/>
     </row>
-    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45" t="s">
@@ -4458,7 +4550,7 @@
       <c r="Z76" s="15"/>
       <c r="AA76" s="15"/>
     </row>
-    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="47"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45" t="s">
@@ -4489,7 +4581,7 @@
       <c r="Z77" s="15"/>
       <c r="AA77" s="15"/>
     </row>
-    <row r="78" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -4518,7 +4610,7 @@
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
     </row>
-    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="44" t="s">
         <v>67</v>
       </c>
@@ -4551,7 +4643,7 @@
       <c r="Z79" s="15"/>
       <c r="AA79" s="15"/>
     </row>
-    <row r="80" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -4580,7 +4672,7 @@
       <c r="Z80" s="15"/>
       <c r="AA80" s="15"/>
     </row>
-    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
         <v>159</v>
       </c>
@@ -4610,7 +4702,7 @@
       <c r="Z81" s="15"/>
       <c r="AA81" s="15"/>
     </row>
-    <row r="82" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -4639,7 +4731,7 @@
       <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
     </row>
-    <row r="83" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
         <v>69</v>
       </c>
@@ -4670,7 +4762,7 @@
       <c r="Z83" s="15"/>
       <c r="AA83" s="15"/>
     </row>
-    <row r="84" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
         <v>70</v>
       </c>
@@ -4701,7 +4793,7 @@
       <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
     </row>
-    <row r="85" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>71</v>
       </c>
@@ -4732,7 +4824,7 @@
       <c r="Z85" s="15"/>
       <c r="AA85" s="15"/>
     </row>
-    <row r="86" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -4747,7 +4839,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
     </row>
-    <row r="87" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -4762,7 +4854,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
     </row>
-    <row r="88" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -4785,7 +4877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4793,17 +4885,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="15" customWidth="1"/>
-    <col min="4" max="15" width="6.140625" style="17" customWidth="1"/>
-    <col min="16" max="27" width="12.5703125" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="15"/>
+    <col min="1" max="1" width="3.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="15" customWidth="1"/>
+    <col min="4" max="15" width="6.1640625" style="17" customWidth="1"/>
+    <col min="16" max="27" width="12.5" customWidth="1"/>
+    <col min="28" max="16384" width="12.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>141</v>
       </c>
@@ -4822,7 +4914,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>153</v>
       </c>
@@ -4841,7 +4933,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -4860,7 +4952,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>35</v>
       </c>
@@ -4887,7 +4979,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
@@ -4914,7 +5006,7 @@
       <c r="N5" s="33"/>
       <c r="O5" s="37"/>
     </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
@@ -4957,7 +5049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="3" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -4988,7 +5080,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +5127,7 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -5086,7 +5178,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>2</v>
       </c>
@@ -5143,7 +5235,7 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5292,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
@@ -5257,7 +5349,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
@@ -5314,7 +5406,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -5371,7 +5463,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
@@ -5428,7 +5520,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -5485,7 +5577,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -5542,7 +5634,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
@@ -5599,7 +5691,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
@@ -5656,7 +5748,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
@@ -5713,7 +5805,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -5770,7 +5862,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
@@ -5827,7 +5919,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
@@ -5884,7 +5976,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
@@ -5941,7 +6033,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>36</v>
       </c>
@@ -5998,7 +6090,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>37</v>
       </c>
@@ -6055,7 +6147,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>44</v>
       </c>
@@ -6112,7 +6204,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>15</v>
       </c>
@@ -6169,7 +6261,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>16</v>
       </c>
@@ -6226,7 +6318,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -6283,7 +6375,7 @@
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>38</v>
       </c>
@@ -6340,7 +6432,7 @@
       <c r="Z31"/>
       <c r="AA31"/>
     </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -6397,7 +6489,7 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>18</v>
       </c>
@@ -6454,7 +6546,7 @@
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>19</v>
       </c>
@@ -6511,7 +6603,7 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>20</v>
       </c>
@@ -6568,7 +6660,7 @@
       <c r="Z35"/>
       <c r="AA35"/>
     </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -6625,7 +6717,7 @@
       <c r="Z36"/>
       <c r="AA36"/>
     </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
@@ -6682,7 +6774,7 @@
       <c r="Z37"/>
       <c r="AA37"/>
     </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>21</v>
       </c>
@@ -6739,7 +6831,7 @@
       <c r="Z38"/>
       <c r="AA38"/>
     </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>22</v>
       </c>
@@ -6796,7 +6888,7 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -6853,7 +6945,7 @@
       <c r="Z40"/>
       <c r="AA40"/>
     </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>23</v>
       </c>
@@ -6910,7 +7002,7 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>24</v>
       </c>
@@ -6967,7 +7059,7 @@
       <c r="Z42"/>
       <c r="AA42"/>
     </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>25</v>
       </c>
@@ -7024,7 +7116,7 @@
       <c r="Z43"/>
       <c r="AA43"/>
     </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>26</v>
       </c>
@@ -7081,7 +7173,7 @@
       <c r="Z44"/>
       <c r="AA44"/>
     </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>27</v>
       </c>
@@ -7138,7 +7230,7 @@
       <c r="Z45"/>
       <c r="AA45"/>
     </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
         <v>48</v>
       </c>
@@ -7195,7 +7287,7 @@
       <c r="Z46"/>
       <c r="AA46"/>
     </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>28</v>
       </c>
@@ -7252,7 +7344,7 @@
       <c r="Z47"/>
       <c r="AA47"/>
     </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>29</v>
       </c>
@@ -7309,7 +7401,7 @@
       <c r="Z48"/>
       <c r="AA48"/>
     </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>40</v>
       </c>
@@ -7366,7 +7458,7 @@
       <c r="Z49"/>
       <c r="AA49"/>
     </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -7423,7 +7515,7 @@
       <c r="Z50"/>
       <c r="AA50"/>
     </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>30</v>
       </c>
@@ -7480,7 +7572,7 @@
       <c r="Z51"/>
       <c r="AA51"/>
     </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>31</v>
       </c>
@@ -7537,7 +7629,7 @@
       <c r="Z52"/>
       <c r="AA52"/>
     </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
         <v>32</v>
       </c>
@@ -7594,7 +7686,7 @@
       <c r="Z53"/>
       <c r="AA53"/>
     </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
         <v>33</v>
       </c>
@@ -7651,7 +7743,7 @@
       <c r="Z54"/>
       <c r="AA54"/>
     </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>34</v>
       </c>
@@ -7708,7 +7800,7 @@
       <c r="Z55"/>
       <c r="AA55"/>
     </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7737,7 +7829,7 @@
       <c r="Z56"/>
       <c r="AA56"/>
     </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="3" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -7754,7 +7846,7 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
     </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -7775,7 +7867,7 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="1:27" s="13" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="13" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
@@ -7792,7 +7884,7 @@
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>125</v>
       </c>
@@ -7813,7 +7905,7 @@
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:27" s="13" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="13" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
@@ -7830,7 +7922,7 @@
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A62" s="44" t="s">
         <v>126</v>
       </c>
@@ -7851,7 +7943,7 @@
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:27" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
@@ -7868,7 +7960,7 @@
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="48" t="s">
@@ -7889,7 +7981,7 @@
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="49" t="s">
@@ -7910,7 +8002,7 @@
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="49" t="s">
@@ -7931,7 +8023,7 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="49" t="s">
@@ -7952,7 +8044,7 @@
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="42"/>
@@ -7969,7 +8061,7 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="48" t="s">
@@ -7990,7 +8082,7 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="49" t="s">
@@ -8011,7 +8103,7 @@
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="49" t="s">
@@ -8030,7 +8122,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -8047,7 +8139,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="44" t="s">
         <v>61</v>
       </c>
@@ -8080,7 +8172,7 @@
       <c r="Z73" s="15"/>
       <c r="AA73" s="15"/>
     </row>
-    <row r="74" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="46"/>
@@ -8109,7 +8201,7 @@
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
     </row>
-    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
         <v>63</v>
       </c>
@@ -8142,7 +8234,7 @@
       <c r="Z75" s="15"/>
       <c r="AA75" s="15"/>
     </row>
-    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45" t="s">
@@ -8173,7 +8265,7 @@
       <c r="Z76" s="15"/>
       <c r="AA76" s="15"/>
     </row>
-    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="47"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45" t="s">
@@ -8204,7 +8296,7 @@
       <c r="Z77" s="15"/>
       <c r="AA77" s="15"/>
     </row>
-    <row r="78" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -8233,7 +8325,7 @@
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
     </row>
-    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="44" t="s">
         <v>67</v>
       </c>
@@ -8266,7 +8358,7 @@
       <c r="Z79" s="15"/>
       <c r="AA79" s="15"/>
     </row>
-    <row r="80" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -8295,7 +8387,7 @@
       <c r="Z80" s="15"/>
       <c r="AA80" s="15"/>
     </row>
-    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
         <v>152</v>
       </c>
@@ -8325,7 +8417,7 @@
       <c r="Z81" s="15"/>
       <c r="AA81" s="15"/>
     </row>
-    <row r="82" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -8354,7 +8446,7 @@
       <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
     </row>
-    <row r="83" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
         <v>69</v>
       </c>
@@ -8385,7 +8477,7 @@
       <c r="Z83" s="15"/>
       <c r="AA83" s="15"/>
     </row>
-    <row r="84" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
         <v>70</v>
       </c>
@@ -8416,7 +8508,7 @@
       <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
     </row>
-    <row r="85" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>71</v>
       </c>
@@ -8447,7 +8539,7 @@
       <c r="Z85" s="15"/>
       <c r="AA85" s="15"/>
     </row>
-    <row r="86" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -8462,7 +8554,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
     </row>
-    <row r="87" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -8477,7 +8569,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
     </row>
-    <row r="88" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -8500,7 +8592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8508,17 +8600,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="15" customWidth="1"/>
-    <col min="4" max="15" width="6.140625" style="17" customWidth="1"/>
-    <col min="16" max="27" width="12.5703125" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="15"/>
+    <col min="1" max="1" width="3.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="15" customWidth="1"/>
+    <col min="4" max="15" width="6.1640625" style="17" customWidth="1"/>
+    <col min="16" max="27" width="12.5" customWidth="1"/>
+    <col min="28" max="16384" width="12.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>141</v>
       </c>
@@ -8537,7 +8629,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
@@ -8556,7 +8648,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -8575,7 +8667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>35</v>
       </c>
@@ -8602,7 +8694,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
@@ -8629,7 +8721,7 @@
       <c r="N5" s="33"/>
       <c r="O5" s="37"/>
     </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
@@ -8672,7 +8764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="3" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -8703,7 +8795,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -8750,7 +8842,7 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -8801,7 +8893,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>2</v>
       </c>
@@ -8858,7 +8950,7 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>3</v>
       </c>
@@ -8915,7 +9007,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
@@ -8972,7 +9064,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
@@ -9029,7 +9121,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -9086,7 +9178,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
@@ -9143,7 +9235,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -9200,7 +9292,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -9257,7 +9349,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
@@ -9314,7 +9406,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
@@ -9371,7 +9463,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
@@ -9428,7 +9520,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -9485,7 +9577,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
@@ -9542,7 +9634,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
@@ -9599,7 +9691,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
@@ -9656,7 +9748,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>36</v>
       </c>
@@ -9713,7 +9805,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>37</v>
       </c>
@@ -9770,7 +9862,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>44</v>
       </c>
@@ -9827,7 +9919,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>15</v>
       </c>
@@ -9884,7 +9976,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>16</v>
       </c>
@@ -9941,7 +10033,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -9998,7 +10090,7 @@
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>38</v>
       </c>
@@ -10055,7 +10147,7 @@
       <c r="Z31"/>
       <c r="AA31"/>
     </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -10112,7 +10204,7 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>18</v>
       </c>
@@ -10169,7 +10261,7 @@
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>19</v>
       </c>
@@ -10226,7 +10318,7 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>20</v>
       </c>
@@ -10283,7 +10375,7 @@
       <c r="Z35"/>
       <c r="AA35"/>
     </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -10340,7 +10432,7 @@
       <c r="Z36"/>
       <c r="AA36"/>
     </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
@@ -10397,7 +10489,7 @@
       <c r="Z37"/>
       <c r="AA37"/>
     </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>21</v>
       </c>
@@ -10454,7 +10546,7 @@
       <c r="Z38"/>
       <c r="AA38"/>
     </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>22</v>
       </c>
@@ -10511,7 +10603,7 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -10568,7 +10660,7 @@
       <c r="Z40"/>
       <c r="AA40"/>
     </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>23</v>
       </c>
@@ -10625,7 +10717,7 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>24</v>
       </c>
@@ -10682,7 +10774,7 @@
       <c r="Z42"/>
       <c r="AA42"/>
     </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>25</v>
       </c>
@@ -10739,7 +10831,7 @@
       <c r="Z43"/>
       <c r="AA43"/>
     </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>26</v>
       </c>
@@ -10796,7 +10888,7 @@
       <c r="Z44"/>
       <c r="AA44"/>
     </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>27</v>
       </c>
@@ -10853,7 +10945,7 @@
       <c r="Z45"/>
       <c r="AA45"/>
     </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
         <v>48</v>
       </c>
@@ -10910,7 +11002,7 @@
       <c r="Z46"/>
       <c r="AA46"/>
     </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>28</v>
       </c>
@@ -10967,7 +11059,7 @@
       <c r="Z47"/>
       <c r="AA47"/>
     </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>29</v>
       </c>
@@ -11024,7 +11116,7 @@
       <c r="Z48"/>
       <c r="AA48"/>
     </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>40</v>
       </c>
@@ -11081,7 +11173,7 @@
       <c r="Z49"/>
       <c r="AA49"/>
     </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -11138,7 +11230,7 @@
       <c r="Z50"/>
       <c r="AA50"/>
     </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>30</v>
       </c>
@@ -11195,7 +11287,7 @@
       <c r="Z51"/>
       <c r="AA51"/>
     </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>31</v>
       </c>
@@ -11252,7 +11344,7 @@
       <c r="Z52"/>
       <c r="AA52"/>
     </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
         <v>32</v>
       </c>
@@ -11309,7 +11401,7 @@
       <c r="Z53"/>
       <c r="AA53"/>
     </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
         <v>33</v>
       </c>
@@ -11366,7 +11458,7 @@
       <c r="Z54"/>
       <c r="AA54"/>
     </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>34</v>
       </c>
@@ -11423,7 +11515,7 @@
       <c r="Z55"/>
       <c r="AA55"/>
     </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -11452,7 +11544,7 @@
       <c r="Z56"/>
       <c r="AA56"/>
     </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="3" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -11469,7 +11561,7 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
     </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -11490,7 +11582,7 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="1:27" s="13" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="13" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
@@ -11507,7 +11599,7 @@
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>125</v>
       </c>
@@ -11528,7 +11620,7 @@
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:27" s="13" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="13" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
@@ -11545,7 +11637,7 @@
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A62" s="44" t="s">
         <v>126</v>
       </c>
@@ -11566,7 +11658,7 @@
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:27" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
@@ -11583,7 +11675,7 @@
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="48" t="s">
@@ -11604,7 +11696,7 @@
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="49" t="s">
@@ -11625,7 +11717,7 @@
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="49" t="s">
@@ -11646,7 +11738,7 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="49" t="s">
@@ -11667,7 +11759,7 @@
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="42"/>
@@ -11684,7 +11776,7 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="48" t="s">
@@ -11705,7 +11797,7 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="49" t="s">
@@ -11726,7 +11818,7 @@
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="49" t="s">
@@ -11745,7 +11837,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:27" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" s="13" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -11762,7 +11854,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="44" t="s">
         <v>61</v>
       </c>
@@ -11795,7 +11887,7 @@
       <c r="Z73" s="15"/>
       <c r="AA73" s="15"/>
     </row>
-    <row r="74" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="46"/>
@@ -11824,7 +11916,7 @@
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
     </row>
-    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
         <v>63</v>
       </c>
@@ -11857,7 +11949,7 @@
       <c r="Z75" s="15"/>
       <c r="AA75" s="15"/>
     </row>
-    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45" t="s">
@@ -11888,7 +11980,7 @@
       <c r="Z76" s="15"/>
       <c r="AA76" s="15"/>
     </row>
-    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="47"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45" t="s">
@@ -11919,7 +12011,7 @@
       <c r="Z77" s="15"/>
       <c r="AA77" s="15"/>
     </row>
-    <row r="78" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -11948,7 +12040,7 @@
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
     </row>
-    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="44" t="s">
         <v>67</v>
       </c>
@@ -11981,7 +12073,7 @@
       <c r="Z79" s="15"/>
       <c r="AA79" s="15"/>
     </row>
-    <row r="80" spans="1:27" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -12010,7 +12102,7 @@
       <c r="Z80" s="15"/>
       <c r="AA80" s="15"/>
     </row>
-    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
         <v>145</v>
       </c>
@@ -12040,7 +12132,7 @@
       <c r="Z81" s="15"/>
       <c r="AA81" s="15"/>
     </row>
-    <row r="82" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -12069,7 +12161,7 @@
       <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
     </row>
-    <row r="83" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
         <v>69</v>
       </c>
@@ -12100,7 +12192,7 @@
       <c r="Z83" s="15"/>
       <c r="AA83" s="15"/>
     </row>
-    <row r="84" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
         <v>70</v>
       </c>
@@ -12131,7 +12223,7 @@
       <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
     </row>
-    <row r="85" spans="1:27" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="11" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>71</v>
       </c>
@@ -12162,7 +12254,7 @@
       <c r="Z85" s="15"/>
       <c r="AA85" s="15"/>
     </row>
-    <row r="86" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -12177,7 +12269,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
     </row>
-    <row r="87" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -12192,7 +12284,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
     </row>
-    <row r="88" spans="1:27" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
